--- a/Indiana/level1.xlsx
+++ b/Indiana/level1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F6F20-358B-4B7A-9F54-FCAF7C23254D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E66E21-3D4D-43F8-B718-991CC3CAD562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="level1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="15">
   <si>
     <t>o</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Платформы бывают движущимися</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>Подняться наверх можно с помощью движущихся платформ.</t>
+  </si>
+  <si>
+    <t>Вот и всё, что тебе нужно знать. Дойди до конца уровня и посмотрим, сколько очков ты сможешь набрать.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -386,15 +398,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EB45F6-45F6-4986-A472-2CEC68834604}">
-  <dimension ref="A1:X126"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC102" sqref="AC102"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W187" sqref="W187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +450,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -419,7 +491,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
@@ -430,22 +532,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
@@ -459,17 +693,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
       <c r="O8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
@@ -483,17 +834,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
       <c r="L13" t="s">
         <v>0</v>
       </c>
@@ -507,17 +957,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
       <c r="O14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
       <c r="O15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" t="s">
         <v>0</v>
       </c>
@@ -531,17 +1098,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
       <c r="L17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
       <c r="L18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
@@ -561,7 +1221,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" t="s">
         <v>0</v>
       </c>
@@ -584,7 +1268,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" t="s">
         <v>0</v>
       </c>
@@ -613,7 +1318,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
       <c r="G22" t="s">
         <v>0</v>
       </c>
@@ -648,7 +1371,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
       <c r="H23" t="s">
         <v>0</v>
       </c>
@@ -677,7 +1421,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
       <c r="I24" t="s">
         <v>0</v>
       </c>
@@ -700,7 +1468,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
@@ -711,22 +1509,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
       <c r="L26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
       <c r="L27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
       <c r="L28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
       <c r="L29" t="s">
         <v>1</v>
       </c>
@@ -740,17 +1670,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
       <c r="O30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
       <c r="O31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
       <c r="L32" t="s">
         <v>0</v>
       </c>
@@ -764,17 +1811,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
       <c r="L33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
       <c r="L34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
       <c r="L35" t="s">
         <v>0</v>
       </c>
@@ -788,17 +1934,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
       <c r="O36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
       <c r="O37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
       <c r="L38" t="s">
         <v>1</v>
       </c>
@@ -812,12 +2075,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
       <c r="L39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
       <c r="K40" t="s">
         <v>0</v>
       </c>
@@ -828,15 +2154,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
       <c r="K41" t="s">
         <v>1</v>
       </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
       <c r="M41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" t="s">
         <v>1</v>
       </c>
@@ -846,6 +2217,9 @@
       <c r="G42" t="s">
         <v>1</v>
       </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
       <c r="I42" t="s">
         <v>0</v>
       </c>
@@ -877,7 +2251,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" t="s">
         <v>1</v>
       </c>
@@ -893,12 +2279,21 @@
       <c r="I43" t="s">
         <v>1</v>
       </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
       <c r="K43" t="s">
         <v>1</v>
       </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
       <c r="M43" t="s">
         <v>1</v>
       </c>
+      <c r="N43" t="s">
+        <v>14</v>
+      </c>
       <c r="O43" t="s">
         <v>1</v>
       </c>
@@ -915,7 +2310,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
       <c r="E44" t="s">
         <v>1</v>
       </c>
@@ -925,6 +2332,9 @@
       <c r="G44" t="s">
         <v>1</v>
       </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
       <c r="I44" t="s">
         <v>0</v>
       </c>
@@ -934,6 +2344,9 @@
       <c r="K44" t="s">
         <v>0</v>
       </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
       <c r="M44" t="s">
         <v>0</v>
       </c>
@@ -943,6 +2356,9 @@
       <c r="O44" t="s">
         <v>0</v>
       </c>
+      <c r="P44" t="s">
+        <v>14</v>
+      </c>
       <c r="Q44" t="s">
         <v>1</v>
       </c>
@@ -953,10 +2369,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" t="s">
         <v>0</v>
       </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
       <c r="K45" t="s">
         <v>0</v>
       </c>
@@ -966,11 +2409,41 @@
       <c r="M45" t="s">
         <v>0</v>
       </c>
+      <c r="N45" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>14</v>
+      </c>
       <c r="R45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" t="s">
         <v>0</v>
       </c>
@@ -986,6 +2459,9 @@
       <c r="K46" t="s">
         <v>1</v>
       </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
       <c r="M46" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +2481,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
       <c r="K47" t="s">
         <v>0</v>
       </c>
@@ -1016,12 +2522,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
       <c r="L48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
       <c r="K49" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +2601,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
       <c r="K50" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +2642,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
       <c r="K51" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +2686,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
       <c r="K52" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +2727,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
       <c r="K53" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +2768,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
       <c r="K54" t="s">
         <v>2</v>
       </c>
@@ -1090,17 +2809,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
       <c r="L55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
       <c r="L56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
       <c r="L57" t="s">
         <v>2</v>
       </c>
@@ -1113,6 +2931,12 @@
       <c r="O57" t="s">
         <v>2</v>
       </c>
+      <c r="P57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>14</v>
+      </c>
       <c r="R57" t="s">
         <v>2</v>
       </c>
@@ -1126,29 +2950,170 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58" t="s">
+        <v>14</v>
+      </c>
       <c r="O58" t="s">
         <v>2</v>
       </c>
+      <c r="P58" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>14</v>
+      </c>
       <c r="R58" t="s">
         <v>2</v>
       </c>
+      <c r="S58" t="s">
+        <v>14</v>
+      </c>
+      <c r="T58" t="s">
+        <v>14</v>
+      </c>
       <c r="U58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" t="s">
+        <v>14</v>
+      </c>
       <c r="O59" t="s">
         <v>2</v>
       </c>
+      <c r="P59" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>14</v>
+      </c>
       <c r="R59" t="s">
         <v>2</v>
       </c>
+      <c r="S59" t="s">
+        <v>14</v>
+      </c>
+      <c r="T59" t="s">
+        <v>14</v>
+      </c>
       <c r="U59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
       <c r="L60" t="s">
         <v>2</v>
       </c>
@@ -1161,36 +3126,189 @@
       <c r="O60" t="s">
         <v>2</v>
       </c>
+      <c r="P60" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>14</v>
+      </c>
       <c r="R60" t="s">
         <v>2</v>
       </c>
+      <c r="S60" t="s">
+        <v>14</v>
+      </c>
+      <c r="T60" t="s">
+        <v>14</v>
+      </c>
       <c r="U60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
       <c r="L61" t="s">
         <v>2</v>
       </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" t="s">
+        <v>14</v>
+      </c>
+      <c r="P61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>14</v>
+      </c>
       <c r="R61" t="s">
         <v>2</v>
       </c>
+      <c r="S61" t="s">
+        <v>14</v>
+      </c>
+      <c r="T61" t="s">
+        <v>14</v>
+      </c>
       <c r="U61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
       <c r="L62" t="s">
         <v>2</v>
       </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>14</v>
+      </c>
       <c r="R62" t="s">
         <v>2</v>
       </c>
+      <c r="S62" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" t="s">
+        <v>14</v>
+      </c>
       <c r="U62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
       <c r="L63" t="s">
         <v>2</v>
       </c>
@@ -1212,21 +3330,180 @@
       <c r="R63" t="s">
         <v>2</v>
       </c>
+      <c r="S63" t="s">
+        <v>14</v>
+      </c>
+      <c r="T63" t="s">
+        <v>14</v>
+      </c>
       <c r="U63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" t="s">
+        <v>14</v>
+      </c>
+      <c r="S64" t="s">
+        <v>14</v>
+      </c>
+      <c r="T64" t="s">
+        <v>14</v>
+      </c>
       <c r="U64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" t="s">
+        <v>14</v>
+      </c>
+      <c r="O65" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" t="s">
+        <v>14</v>
+      </c>
+      <c r="S65" t="s">
+        <v>14</v>
+      </c>
+      <c r="T65" t="s">
+        <v>14</v>
+      </c>
       <c r="U65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
       <c r="L66" t="s">
         <v>2</v>
       </c>
@@ -1258,17 +3535,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
       <c r="L67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
       <c r="L68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
       <c r="L69" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +3652,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
       <c r="K70" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +3693,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
       <c r="J71" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +3737,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
       <c r="H72" t="s">
         <v>3</v>
       </c>
@@ -1333,21 +3787,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
       <c r="H73" t="s">
         <v>3</v>
       </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
       <c r="J73" t="s">
         <v>3</v>
       </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
       <c r="N73" t="s">
         <v>3</v>
       </c>
+      <c r="O73" t="s">
+        <v>14</v>
+      </c>
       <c r="P73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" t="s">
         <v>3</v>
       </c>
@@ -1360,6 +3871,9 @@
       <c r="K74" t="s">
         <v>0</v>
       </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
       <c r="M74" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +3887,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" t="s">
         <v>3</v>
       </c>
@@ -1383,6 +3912,9 @@
       <c r="H75" t="s">
         <v>3</v>
       </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
       <c r="J75" t="s">
         <v>0</v>
       </c>
@@ -1398,6 +3930,9 @@
       <c r="N75" t="s">
         <v>0</v>
       </c>
+      <c r="O75" t="s">
+        <v>14</v>
+      </c>
       <c r="P75" t="s">
         <v>3</v>
       </c>
@@ -1408,27 +3943,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
       <c r="H76" t="s">
         <v>3</v>
       </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
       <c r="K76" t="s">
         <v>3</v>
       </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
       <c r="M76" t="s">
         <v>3</v>
       </c>
+      <c r="N76" t="s">
+        <v>14</v>
+      </c>
+      <c r="O76" t="s">
+        <v>14</v>
+      </c>
       <c r="P76" t="s">
         <v>3</v>
       </c>
+      <c r="Q76" t="s">
+        <v>14</v>
+      </c>
       <c r="R76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
@@ -1438,6 +4024,9 @@
       <c r="H77" t="s">
         <v>3</v>
       </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
       <c r="J77" t="s">
         <v>0</v>
       </c>
@@ -1453,6 +4042,9 @@
       <c r="N77" t="s">
         <v>0</v>
       </c>
+      <c r="O77" t="s">
+        <v>14</v>
+      </c>
       <c r="P77" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +4055,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
       <c r="H78" t="s">
         <v>3</v>
       </c>
@@ -1476,6 +4089,9 @@
       <c r="K78" t="s">
         <v>0</v>
       </c>
+      <c r="L78" t="s">
+        <v>14</v>
+      </c>
       <c r="M78" t="s">
         <v>0</v>
       </c>
@@ -1489,21 +4105,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
       <c r="H79" t="s">
         <v>3</v>
       </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
       <c r="J79" t="s">
         <v>3</v>
       </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
       <c r="N79" t="s">
         <v>3</v>
       </c>
+      <c r="O79" t="s">
+        <v>14</v>
+      </c>
       <c r="P79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
       <c r="H80" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +4205,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
       <c r="J81" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +4249,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
       <c r="K82" t="s">
         <v>0</v>
       </c>
@@ -1560,22 +4290,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
       <c r="L83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
       <c r="L84" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
       <c r="L85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
       <c r="K86" t="s">
         <v>0</v>
       </c>
@@ -1586,18 +4445,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
       <c r="K87" t="s">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
       <c r="K88" t="s">
         <v>0</v>
       </c>
@@ -1607,16 +4526,127 @@
       <c r="M88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="X88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
       <c r="L89" t="s">
         <v>0</v>
       </c>
-      <c r="X89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" t="s">
+        <v>14</v>
+      </c>
+      <c r="S89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" t="s">
+        <v>14</v>
+      </c>
+      <c r="S90" t="s">
+        <v>14</v>
+      </c>
       <c r="T90" t="s">
         <v>0</v>
       </c>
@@ -1627,18 +4657,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" t="s">
+        <v>14</v>
+      </c>
+      <c r="O91" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" t="s">
+        <v>14</v>
+      </c>
+      <c r="S91" t="s">
+        <v>14</v>
+      </c>
       <c r="T91" t="s">
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" t="s">
+        <v>14</v>
+      </c>
+      <c r="O92" t="s">
+        <v>14</v>
+      </c>
+      <c r="P92" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>14</v>
+      </c>
+      <c r="R92" t="s">
+        <v>14</v>
+      </c>
+      <c r="S92" t="s">
+        <v>14</v>
+      </c>
       <c r="T92" t="s">
         <v>0</v>
       </c>
@@ -1649,153 +4793,2978 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" t="s">
+        <v>14</v>
+      </c>
+      <c r="O93" t="s">
+        <v>14</v>
+      </c>
+      <c r="P93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>14</v>
+      </c>
+      <c r="R93" t="s">
+        <v>14</v>
+      </c>
+      <c r="S93" t="s">
+        <v>14</v>
+      </c>
+      <c r="T93" t="s">
+        <v>14</v>
+      </c>
+      <c r="U93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="T98" t="s">
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>0</v>
+      </c>
+      <c r="V98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="T99" t="s">
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1</v>
+      </c>
+      <c r="V99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="T100" t="s">
+        <v>0</v>
+      </c>
+      <c r="U100" t="s">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="U101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
       <c r="K109" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>0</v>
-      </c>
-      <c r="M109" t="s">
-        <v>0</v>
-      </c>
-      <c r="W109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
       <c r="K110" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L110" t="s">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
       <c r="K111" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L111" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M111" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
       <c r="L112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="12:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" t="s">
+        <v>14</v>
+      </c>
+      <c r="O112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
       <c r="L113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="12:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" t="s">
+        <v>14</v>
+      </c>
+      <c r="O113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
       <c r="L114" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
       <c r="L115" t="s">
         <v>3</v>
       </c>
-      <c r="M115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N115" t="s">
-        <v>3</v>
-      </c>
-      <c r="O115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="O116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="12:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>3</v>
+      </c>
+      <c r="M117" t="s">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>3</v>
+      </c>
       <c r="O117" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
       <c r="L118" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M118" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
       <c r="L119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="12:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
       <c r="L120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="12:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
       <c r="L121" t="s">
-        <v>3</v>
-      </c>
-      <c r="M121" t="s">
-        <v>0</v>
-      </c>
-      <c r="N121" t="s">
-        <v>3</v>
-      </c>
-      <c r="O121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="O122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="O123" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="12:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>0</v>
+      </c>
       <c r="L124" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M124" t="s">
         <v>0</v>
       </c>
-      <c r="N124" t="s">
-        <v>3</v>
-      </c>
-      <c r="O124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="12:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
+        <v>0</v>
+      </c>
       <c r="L125" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
       <c r="L126" t="s">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>3</v>
+      </c>
+      <c r="M135" t="s">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136" t="s">
+        <v>14</v>
+      </c>
+      <c r="N136" t="s">
+        <v>14</v>
+      </c>
+      <c r="O136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137" t="s">
+        <v>14</v>
+      </c>
+      <c r="N137" t="s">
+        <v>14</v>
+      </c>
+      <c r="O137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" t="s">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>3</v>
+      </c>
+      <c r="N138" t="s">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3</v>
+      </c>
+      <c r="M141" t="s">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142" t="s">
+        <v>14</v>
+      </c>
+      <c r="N142" t="s">
+        <v>14</v>
+      </c>
+      <c r="O142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" t="s">
+        <v>14</v>
+      </c>
+      <c r="N143" t="s">
+        <v>14</v>
+      </c>
+      <c r="O143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3</v>
+      </c>
+      <c r="M144" t="s">
+        <v>0</v>
+      </c>
+      <c r="N144" t="s">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>0</v>
+      </c>
+      <c r="W144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>3</v>
+      </c>
+      <c r="M147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" t="s">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>14</v>
+      </c>
+      <c r="N148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>3</v>
+      </c>
+      <c r="K149" t="s">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>3</v>
+      </c>
+      <c r="M149" t="s">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" t="s">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>14</v>
+      </c>
+      <c r="N150" t="s">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>14</v>
+      </c>
+      <c r="P150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>3</v>
+      </c>
+      <c r="K151" t="s">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>3</v>
+      </c>
+      <c r="M151" t="s">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>0</v>
+      </c>
+      <c r="P151" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>14</v>
+      </c>
+      <c r="N152" t="s">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>14</v>
+      </c>
+      <c r="P152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>3</v>
+      </c>
+      <c r="K153" t="s">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>3</v>
+      </c>
+      <c r="M153" t="s">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
+      <c r="L154" t="s">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>14</v>
+      </c>
+      <c r="N154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>3</v>
+      </c>
+      <c r="M155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
+      <c r="L157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" t="s">
+        <v>14</v>
+      </c>
+      <c r="L159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" t="s">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1813,7 +7782,7 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Indiana/level1.xlsx
+++ b/Indiana/level1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E66E21-3D4D-43F8-B718-991CC3CAD562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550EBA0-C1E0-4061-98AF-13B9DF5A2864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="15">
   <si>
     <t>o</t>
   </si>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EB45F6-45F6-4986-A472-2CEC68834604}">
-  <dimension ref="A1:X162"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W187" sqref="W187"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W168" sqref="W168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -564,13 +564,16 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -602,13 +605,16 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -640,13 +646,25 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -678,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -692,8 +710,11 @@
       <c r="O7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -739,8 +760,11 @@
       <c r="O8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -786,8 +810,11 @@
       <c r="O9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -819,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -833,8 +860,11 @@
       <c r="O10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -866,13 +896,25 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -904,13 +946,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -942,22 +984,13 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -989,22 +1022,22 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1086,19 +1119,19 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1135,8 +1168,17 @@
       <c r="L17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1174,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1203,72 +1245,60 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1291,13 +1321,13 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>1</v>
@@ -1309,16 +1339,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1338,13 +1362,13 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>1</v>
@@ -1362,16 +1386,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -1415,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1497,19 +1515,22 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1541,13 +1562,16 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1579,13 +1603,16 @@
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1617,13 +1644,16 @@
         <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1655,22 +1685,25 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1702,22 +1735,25 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1761,10 +1797,13 @@
         <v>14</v>
       </c>
       <c r="O31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1799,19 +1838,22 @@
         <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1843,13 +1885,25 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1881,13 +1935,25 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1919,22 +1985,13 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1966,22 +2023,13 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2013,22 +2061,22 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2063,19 +2111,19 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2110,10 +2158,19 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
         <v>1</v>
@@ -2153,8 +2210,14 @@
       <c r="M40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2186,16 +2249,13 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2209,22 +2269,22 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
         <v>0</v>
@@ -2235,23 +2295,8 @@
       <c r="M42" t="s">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>1</v>
-      </c>
-      <c r="R42" t="s">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2265,19 +2310,19 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -2291,26 +2336,8 @@
       <c r="M43" t="s">
         <v>1</v>
       </c>
-      <c r="N43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>1</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>
@@ -2356,9 +2383,6 @@
       <c r="O44" t="s">
         <v>0</v>
       </c>
-      <c r="P44" t="s">
-        <v>14</v>
-      </c>
       <c r="Q44" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2383,49 +2407,52 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
         <v>14</v>
       </c>
       <c r="O45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2439,49 +2466,52 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="s">
         <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2521,8 +2551,23 @@
       <c r="M47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2542,25 +2587,43 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2595,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2633,16 +2696,13 @@
         <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2682,93 +2742,93 @@
       <c r="M51" t="s">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2</v>
-      </c>
-      <c r="L53" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2841,13 +2901,16 @@
         <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2879,13 +2942,16 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2922,35 +2988,8 @@
       <c r="L57" t="s">
         <v>2</v>
       </c>
-      <c r="M57" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" t="s">
-        <v>2</v>
-      </c>
-      <c r="P57" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>14</v>
-      </c>
-      <c r="R57" t="s">
-        <v>2</v>
-      </c>
-      <c r="S57" t="s">
-        <v>2</v>
-      </c>
-      <c r="T57" t="s">
-        <v>2</v>
-      </c>
-      <c r="U57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2985,37 +3024,40 @@
         <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
         <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R58" t="s">
         <v>2</v>
       </c>
       <c r="S58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3050,37 +3092,40 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
         <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R59" t="s">
         <v>2</v>
       </c>
       <c r="S59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3115,13 +3160,13 @@
         <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O60" t="s">
         <v>2</v>
@@ -3144,8 +3189,11 @@
       <c r="U60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -3189,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="O61" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P61" t="s">
         <v>14</v>
@@ -3209,8 +3257,11 @@
       <c r="U61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3248,34 +3299,37 @@
         <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R62" t="s">
         <v>2</v>
       </c>
       <c r="S62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3313,19 +3367,19 @@
         <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O63" t="s">
         <v>2</v>
       </c>
       <c r="P63" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q63" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R63" t="s">
         <v>2</v>
@@ -3339,8 +3393,11 @@
       <c r="U63" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3432,7 @@
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -3384,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="O64" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
         <v>14</v>
@@ -3393,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="R64" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S64" t="s">
         <v>14</v>
@@ -3404,8 +3461,11 @@
       <c r="U64" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3440,37 +3500,40 @@
         <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3505,37 +3568,40 @@
         <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3570,10 +3636,40 @@
         <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>14</v>
+      </c>
+      <c r="R67" t="s">
+        <v>14</v>
+      </c>
+      <c r="S67" t="s">
+        <v>14</v>
+      </c>
+      <c r="T67" t="s">
+        <v>14</v>
+      </c>
+      <c r="U67" t="s">
+        <v>2</v>
+      </c>
+      <c r="V67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3610,8 +3706,38 @@
       <c r="L68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>2</v>
+      </c>
+      <c r="P68" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>2</v>
+      </c>
+      <c r="R68" t="s">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s">
+        <v>2</v>
+      </c>
+      <c r="U68" t="s">
+        <v>2</v>
+      </c>
+      <c r="V68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3646,98 +3772,89 @@
         <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>0</v>
-      </c>
-      <c r="W69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3760,34 +3877,25 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3810,34 +3918,28 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>3</v>
-      </c>
-      <c r="O73" t="s">
-        <v>14</v>
-      </c>
-      <c r="P73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3857,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
@@ -3869,13 +3971,13 @@
         <v>3</v>
       </c>
       <c r="K74" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74" t="s">
         <v>3</v>
@@ -3886,8 +3988,11 @@
       <c r="P74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3904,10 +4009,10 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
@@ -3916,19 +4021,19 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M75" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
         <v>14</v>
@@ -3937,13 +4042,10 @@
         <v>3</v>
       </c>
       <c r="Q75" t="s">
-        <v>3</v>
-      </c>
-      <c r="R75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3960,46 +4062,43 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>14</v>
       </c>
       <c r="M76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P76" t="s">
         <v>3</v>
       </c>
       <c r="Q76" t="s">
-        <v>14</v>
-      </c>
-      <c r="R76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4010,10 +4109,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
@@ -4054,8 +4153,14 @@
       <c r="R77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4066,10 +4171,10 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -4081,31 +4186,43 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" t="s">
         <v>14</v>
       </c>
       <c r="M78" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" t="s">
+        <v>14</v>
+      </c>
+      <c r="S78" t="s">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4116,16 +4233,16 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>3</v>
@@ -4134,19 +4251,19 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>14</v>
@@ -4154,8 +4271,20 @@
       <c r="P79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q79" t="s">
+        <v>3</v>
+      </c>
+      <c r="R79" t="s">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4175,7 +4304,7 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -4187,13 +4316,13 @@
         <v>3</v>
       </c>
       <c r="K80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N80" t="s">
         <v>3</v>
@@ -4204,8 +4333,11 @@
       <c r="P80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4225,31 +4357,40 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L81" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M81" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>14</v>
+      </c>
+      <c r="P81" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4269,28 +4410,40 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>3</v>
+      </c>
+      <c r="P82" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -4319,16 +4472,22 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M83" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -4360,13 +4519,16 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4436,16 +4598,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L86" t="s">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -4477,16 +4636,13 @@
         <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>1</v>
-      </c>
-      <c r="M87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4526,138 +4682,93 @@
       <c r="M88" t="s">
         <v>0</v>
       </c>
-      <c r="X88" t="s">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
-      <c r="L89" t="s">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>14</v>
-      </c>
-      <c r="N89" t="s">
-        <v>14</v>
-      </c>
-      <c r="O89" t="s">
-        <v>14</v>
-      </c>
-      <c r="P89" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>14</v>
-      </c>
-      <c r="R89" t="s">
-        <v>14</v>
-      </c>
-      <c r="S89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
-      <c r="L90" t="s">
-        <v>14</v>
-      </c>
-      <c r="M90" t="s">
-        <v>14</v>
-      </c>
-      <c r="N90" t="s">
-        <v>14</v>
-      </c>
-      <c r="O90" t="s">
-        <v>14</v>
-      </c>
-      <c r="P90" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>14</v>
-      </c>
-      <c r="R90" t="s">
-        <v>14</v>
-      </c>
-      <c r="S90" t="s">
-        <v>14</v>
-      </c>
-      <c r="T90" t="s">
-        <v>0</v>
-      </c>
-      <c r="U90" t="s">
-        <v>0</v>
-      </c>
-      <c r="V90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4692,7 +4803,7 @@
         <v>14</v>
       </c>
       <c r="L91" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -4715,17 +4826,8 @@
       <c r="S91" t="s">
         <v>14</v>
       </c>
-      <c r="T91" t="s">
-        <v>0</v>
-      </c>
-      <c r="U91" t="s">
-        <v>1</v>
-      </c>
-      <c r="V91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4793,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4852,13 +4954,16 @@
         <v>14</v>
       </c>
       <c r="T93" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4890,16 +4995,43 @@
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L94" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="N94" t="s">
+        <v>14</v>
+      </c>
+      <c r="O94" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>14</v>
+      </c>
+      <c r="R94" t="s">
+        <v>14</v>
+      </c>
+      <c r="S94" t="s">
+        <v>14</v>
+      </c>
+      <c r="T94" t="s">
+        <v>0</v>
+      </c>
+      <c r="U94" t="s">
+        <v>0</v>
+      </c>
+      <c r="V94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -4931,16 +5063,40 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L95" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>14</v>
+      </c>
+      <c r="O95" t="s">
+        <v>14</v>
+      </c>
+      <c r="P95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>14</v>
+      </c>
+      <c r="R95" t="s">
+        <v>14</v>
+      </c>
+      <c r="S95" t="s">
+        <v>14</v>
+      </c>
+      <c r="T95" t="s">
+        <v>14</v>
+      </c>
+      <c r="U95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -4981,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -5013,13 +5169,16 @@
         <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -5050,17 +5209,17 @@
       <c r="J98" t="s">
         <v>14</v>
       </c>
-      <c r="T98" t="s">
-        <v>0</v>
-      </c>
-      <c r="U98" t="s">
-        <v>0</v>
-      </c>
-      <c r="V98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K98" t="s">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -5091,17 +5250,14 @@
       <c r="J99" t="s">
         <v>14</v>
       </c>
-      <c r="T99" t="s">
-        <v>0</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1</v>
-      </c>
-      <c r="V99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -5173,11 +5329,17 @@
       <c r="J101" t="s">
         <v>14</v>
       </c>
+      <c r="T101" t="s">
+        <v>0</v>
+      </c>
       <c r="U101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -5208,17 +5370,17 @@
       <c r="J102" t="s">
         <v>14</v>
       </c>
-      <c r="K102" t="s">
-        <v>0</v>
-      </c>
-      <c r="L102" t="s">
-        <v>0</v>
-      </c>
-      <c r="M102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T102" t="s">
+        <v>0</v>
+      </c>
+      <c r="U102" t="s">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -5249,17 +5411,11 @@
       <c r="J103" t="s">
         <v>14</v>
       </c>
-      <c r="K103" t="s">
-        <v>0</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1</v>
-      </c>
-      <c r="M103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -5300,133 +5456,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1</v>
+      </c>
+      <c r="M105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" t="s">
-        <v>14</v>
-      </c>
-      <c r="K105" t="s">
-        <v>0</v>
-      </c>
-      <c r="L105" t="s">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
-        <v>0</v>
-      </c>
-      <c r="W105" t="s">
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>14</v>
-      </c>
-      <c r="K106" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1</v>
-      </c>
-      <c r="M106" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" t="s">
-        <v>14</v>
-      </c>
-      <c r="K107" t="s">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -5458,13 +5614,16 @@
         <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -5496,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -5540,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5577,17 +5739,8 @@
       <c r="L111" t="s">
         <v>3</v>
       </c>
-      <c r="M111" t="s">
-        <v>0</v>
-      </c>
-      <c r="N111" t="s">
-        <v>3</v>
-      </c>
-      <c r="O111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -5622,19 +5775,10 @@
         <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>14</v>
-      </c>
-      <c r="M112" t="s">
-        <v>14</v>
-      </c>
-      <c r="N112" t="s">
-        <v>14</v>
-      </c>
-      <c r="O112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -5669,19 +5813,10 @@
         <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M113" t="s">
-        <v>14</v>
-      </c>
-      <c r="N113" t="s">
-        <v>14</v>
-      </c>
-      <c r="O113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -5718,17 +5853,8 @@
       <c r="L114" t="s">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>3</v>
-      </c>
-      <c r="N114" t="s">
-        <v>0</v>
-      </c>
-      <c r="O114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -5765,8 +5891,17 @@
       <c r="L115" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5801,10 +5936,19 @@
         <v>14</v>
       </c>
       <c r="L116" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="M116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116" t="s">
+        <v>14</v>
+      </c>
+      <c r="O116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -5839,19 +5983,19 @@
         <v>14</v>
       </c>
       <c r="L117" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M117" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O117" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -5886,19 +6030,19 @@
         <v>14</v>
       </c>
       <c r="L118" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M118" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -5933,19 +6077,10 @@
         <v>14</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
-      </c>
-      <c r="M119" t="s">
-        <v>14</v>
-      </c>
-      <c r="N119" t="s">
-        <v>14</v>
-      </c>
-      <c r="O119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -5980,19 +6115,10 @@
         <v>14</v>
       </c>
       <c r="L120" t="s">
-        <v>3</v>
-      </c>
-      <c r="M120" t="s">
-        <v>0</v>
-      </c>
-      <c r="N120" t="s">
-        <v>3</v>
-      </c>
-      <c r="O120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -6024,13 +6150,16 @@
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -6062,13 +6191,16 @@
         <v>14</v>
       </c>
       <c r="K122" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -6109,9 +6241,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>14</v>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -6141,16 +6273,16 @@
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L124" t="s">
-        <v>1</v>
-      </c>
-      <c r="M124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -6191,552 +6323,555 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3</v>
+      </c>
+      <c r="M131" t="s">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132" t="s">
+        <v>14</v>
+      </c>
+      <c r="N132" t="s">
+        <v>14</v>
+      </c>
+      <c r="O132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133" t="s">
+        <v>14</v>
+      </c>
+      <c r="N133" t="s">
+        <v>14</v>
+      </c>
+      <c r="O133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>3</v>
+      </c>
+      <c r="N134" t="s">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" t="s">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1</v>
+      </c>
+      <c r="M137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" t="s">
-        <v>0</v>
-      </c>
-      <c r="W126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>14</v>
-      </c>
-      <c r="K127" t="s">
-        <v>0</v>
-      </c>
-      <c r="L127" t="s">
-        <v>0</v>
-      </c>
-      <c r="M127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>14</v>
-      </c>
-      <c r="K128" t="s">
-        <v>0</v>
-      </c>
-      <c r="L128" t="s">
-        <v>1</v>
-      </c>
-      <c r="M128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>14</v>
-      </c>
-      <c r="K129" t="s">
-        <v>0</v>
-      </c>
-      <c r="L129" t="s">
-        <v>0</v>
-      </c>
-      <c r="M129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>14</v>
-      </c>
-      <c r="K130" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>14</v>
-      </c>
-      <c r="K132" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>14</v>
-      </c>
-      <c r="K133" t="s">
-        <v>14</v>
-      </c>
-      <c r="L133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>14</v>
-      </c>
-      <c r="K134" t="s">
-        <v>14</v>
-      </c>
-      <c r="L134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>14</v>
-      </c>
-      <c r="K135" t="s">
-        <v>14</v>
-      </c>
-      <c r="L135" t="s">
-        <v>3</v>
-      </c>
-      <c r="M135" t="s">
-        <v>0</v>
-      </c>
-      <c r="N135" t="s">
-        <v>3</v>
-      </c>
-      <c r="O135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>14</v>
-      </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" t="s">
-        <v>14</v>
-      </c>
-      <c r="M136" t="s">
-        <v>14</v>
-      </c>
-      <c r="N136" t="s">
-        <v>14</v>
-      </c>
-      <c r="O136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>14</v>
-      </c>
-      <c r="K137" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" t="s">
-        <v>14</v>
-      </c>
-      <c r="M137" t="s">
-        <v>14</v>
-      </c>
-      <c r="N137" t="s">
-        <v>14</v>
-      </c>
-      <c r="O137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>14</v>
-      </c>
-      <c r="K138" t="s">
-        <v>14</v>
-      </c>
-      <c r="L138" t="s">
-        <v>0</v>
-      </c>
-      <c r="M138" t="s">
-        <v>3</v>
-      </c>
-      <c r="N138" t="s">
-        <v>0</v>
-      </c>
-      <c r="O138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>14</v>
-      </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
@@ -6768,10 +6903,10 @@
         <v>14</v>
       </c>
       <c r="L139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -6803,13 +6938,16 @@
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -6841,22 +6979,16 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M141" t="s">
         <v>0</v>
       </c>
-      <c r="N141" t="s">
-        <v>3</v>
-      </c>
-      <c r="O141" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -6888,22 +7020,16 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>14</v>
-      </c>
-      <c r="N142" t="s">
-        <v>14</v>
-      </c>
-      <c r="O142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -6938,19 +7064,10 @@
         <v>14</v>
       </c>
       <c r="L143" t="s">
-        <v>14</v>
-      </c>
-      <c r="M143" t="s">
-        <v>14</v>
-      </c>
-      <c r="N143" t="s">
-        <v>14</v>
-      </c>
-      <c r="O143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6996,128 +7113,152 @@
       <c r="O144" t="s">
         <v>0</v>
       </c>
-      <c r="W144" t="s">
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145" t="s">
+        <v>14</v>
+      </c>
+      <c r="N145" t="s">
+        <v>14</v>
+      </c>
+      <c r="O145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146" t="s">
+        <v>14</v>
+      </c>
+      <c r="N146" t="s">
+        <v>14</v>
+      </c>
+      <c r="O146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" t="s">
+        <v>3</v>
+      </c>
+      <c r="M147" t="s">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>0</v>
+      </c>
+      <c r="W147" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>14</v>
-      </c>
-      <c r="K145" t="s">
-        <v>14</v>
-      </c>
-      <c r="L145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>14</v>
-      </c>
-      <c r="K146" t="s">
-        <v>14</v>
-      </c>
-      <c r="L146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>14</v>
-      </c>
-      <c r="K147" t="s">
-        <v>0</v>
-      </c>
-      <c r="L147" t="s">
-        <v>3</v>
-      </c>
-      <c r="M147" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -7146,7 +7287,7 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
@@ -7154,14 +7295,8 @@
       <c r="L148" t="s">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>14</v>
-      </c>
-      <c r="N148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -7187,28 +7322,19 @@
         <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K149" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L149" t="s">
-        <v>3</v>
-      </c>
-      <c r="M149" t="s">
-        <v>0</v>
-      </c>
-      <c r="N149" t="s">
-        <v>3</v>
-      </c>
-      <c r="O149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -7231,34 +7357,25 @@
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M150" t="s">
-        <v>14</v>
-      </c>
-      <c r="N150" t="s">
-        <v>0</v>
-      </c>
-      <c r="O150" t="s">
-        <v>14</v>
-      </c>
-      <c r="P150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -7278,40 +7395,31 @@
         <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L151" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N151" t="s">
-        <v>3</v>
-      </c>
-      <c r="O151" t="s">
-        <v>0</v>
-      </c>
-      <c r="P151" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -7334,34 +7442,31 @@
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K152" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M152" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O152" t="s">
-        <v>14</v>
-      </c>
-      <c r="P152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -7384,31 +7489,34 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L153" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N153" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="P153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -7428,31 +7536,40 @@
         <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K154" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M154" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>0</v>
+      </c>
+      <c r="P154" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -7475,25 +7592,34 @@
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L155" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="N155" t="s">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>14</v>
+      </c>
+      <c r="P155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -7519,19 +7645,28 @@
         <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K156" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="M156" t="s">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -7560,7 +7695,7 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
         <v>14</v>
@@ -7568,8 +7703,14 @@
       <c r="L157" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M157" t="s">
+        <v>14</v>
+      </c>
+      <c r="N157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -7601,13 +7742,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L158" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7645,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -7677,16 +7821,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L160" t="s">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -7718,16 +7859,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L161" t="s">
-        <v>1</v>
-      </c>
-      <c r="M161" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -7759,12 +7897,132 @@
         <v>14</v>
       </c>
       <c r="K162" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L162" t="s">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7782,7 +8040,7 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Indiana/level1.xlsx
+++ b/Indiana/level1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550EBA0-C1E0-4061-98AF-13B9DF5A2864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E66E21-3D4D-43F8-B718-991CC3CAD562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="15">
   <si>
     <t>o</t>
   </si>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EB45F6-45F6-4986-A472-2CEC68834604}">
-  <dimension ref="A1:X165"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W168" sqref="W168"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W187" sqref="W187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -564,16 +564,13 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -605,16 +602,13 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -646,25 +640,13 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -696,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -710,11 +692,8 @@
       <c r="O7" t="s">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -760,11 +739,8 @@
       <c r="O8" t="s">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -810,11 +786,8 @@
       <c r="O9" t="s">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -846,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -860,11 +833,8 @@
       <c r="O10" t="s">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -896,25 +866,13 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -946,13 +904,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -984,13 +942,22 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1022,22 +989,22 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1119,19 +1086,19 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1168,17 +1135,8 @@
       <c r="L17" t="s">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1245,16 +1203,25 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1280,25 +1247,28 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1321,13 +1291,13 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>1</v>
@@ -1339,10 +1309,16 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1362,13 +1338,13 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>1</v>
@@ -1386,10 +1362,16 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -1433,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1486,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1515,22 +1497,19 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1562,16 +1541,13 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1603,16 +1579,13 @@
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1644,16 +1617,13 @@
         <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1685,25 +1655,22 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1735,25 +1702,22 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1797,13 +1761,10 @@
         <v>14</v>
       </c>
       <c r="O31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1838,22 +1799,19 @@
         <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1885,25 +1843,13 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1935,25 +1881,13 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1985,13 +1919,22 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2023,13 +1966,22 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2061,22 +2013,22 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2111,19 +2063,19 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2158,19 +2110,10 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
         <v>1</v>
@@ -2210,14 +2153,8 @@
       <c r="M40" t="s">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2249,13 +2186,16 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2269,22 +2209,22 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>0</v>
@@ -2295,8 +2235,23 @@
       <c r="M42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2310,19 +2265,19 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -2336,8 +2291,26 @@
       <c r="M43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2372,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>
@@ -2383,6 +2356,9 @@
       <c r="O44" t="s">
         <v>0</v>
       </c>
+      <c r="P44" t="s">
+        <v>14</v>
+      </c>
       <c r="Q44" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2407,52 +2383,49 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
         <v>14</v>
       </c>
       <c r="O45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P45" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q45" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2466,52 +2439,49 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>1</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2531,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2551,23 +2521,8 @@
       <c r="M47" t="s">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
-        <v>14</v>
-      </c>
-      <c r="O47" t="s">
-        <v>14</v>
-      </c>
-      <c r="P47" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>14</v>
-      </c>
-      <c r="R47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2587,43 +2542,25 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K48" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2658,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2696,13 +2633,16 @@
         <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2742,8 +2682,11 @@
       <c r="M51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2775,16 +2718,16 @@
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2816,19 +2759,16 @@
         <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" t="s">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2901,16 +2841,13 @@
         <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L55" t="s">
         <v>2</v>
       </c>
-      <c r="M55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2942,16 +2879,13 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L56" t="s">
         <v>2</v>
       </c>
-      <c r="M56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2988,8 +2922,35 @@
       <c r="L57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s">
+        <v>2</v>
+      </c>
+      <c r="U57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3024,40 +2985,37 @@
         <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O58" t="s">
         <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R58" t="s">
         <v>2</v>
       </c>
       <c r="S58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T58" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U58" t="s">
         <v>2</v>
       </c>
-      <c r="V58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3092,81 +3050,78 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O59" t="s">
         <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R59" t="s">
         <v>2</v>
       </c>
       <c r="S59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U59" t="s">
         <v>2</v>
       </c>
-      <c r="V59" t="s">
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" t="s">
-        <v>14</v>
-      </c>
       <c r="M60" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
         <v>2</v>
@@ -3189,47 +3144,44 @@
       <c r="U60" t="s">
         <v>2</v>
       </c>
-      <c r="V60" t="s">
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" t="s">
-        <v>14</v>
-      </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="O61" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P61" t="s">
         <v>14</v>
@@ -3257,11 +3209,8 @@
       <c r="U61" t="s">
         <v>2</v>
       </c>
-      <c r="V61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3299,37 +3248,34 @@
         <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R62" t="s">
         <v>2</v>
       </c>
       <c r="S62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U62" t="s">
         <v>2</v>
       </c>
-      <c r="V62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3367,19 +3313,19 @@
         <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>2</v>
       </c>
       <c r="P63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R63" t="s">
         <v>2</v>
@@ -3393,11 +3339,8 @@
       <c r="U63" t="s">
         <v>2</v>
       </c>
-      <c r="V63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3375,7 @@
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -3441,7 +3384,7 @@
         <v>14</v>
       </c>
       <c r="O64" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P64" t="s">
         <v>14</v>
@@ -3450,7 +3393,7 @@
         <v>14</v>
       </c>
       <c r="R64" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S64" t="s">
         <v>14</v>
@@ -3461,11 +3404,8 @@
       <c r="U64" t="s">
         <v>2</v>
       </c>
-      <c r="V64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3500,176 +3440,140 @@
         <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U65" t="s">
         <v>2</v>
       </c>
-      <c r="V65" t="s">
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" t="s">
-        <v>14</v>
-      </c>
-      <c r="L66" t="s">
-        <v>14</v>
-      </c>
       <c r="M66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U66" t="s">
         <v>2</v>
       </c>
-      <c r="V66" t="s">
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" t="s">
-        <v>14</v>
-      </c>
-      <c r="N67" t="s">
-        <v>14</v>
-      </c>
-      <c r="O67" t="s">
-        <v>14</v>
-      </c>
-      <c r="P67" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>14</v>
-      </c>
-      <c r="R67" t="s">
-        <v>14</v>
-      </c>
-      <c r="S67" t="s">
-        <v>14</v>
-      </c>
-      <c r="T67" t="s">
-        <v>14</v>
-      </c>
-      <c r="U67" t="s">
-        <v>2</v>
-      </c>
-      <c r="V67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3706,38 +3610,8 @@
       <c r="L68" t="s">
         <v>2</v>
       </c>
-      <c r="M68" t="s">
-        <v>2</v>
-      </c>
-      <c r="N68" t="s">
-        <v>2</v>
-      </c>
-      <c r="O68" t="s">
-        <v>2</v>
-      </c>
-      <c r="P68" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>2</v>
-      </c>
-      <c r="R68" t="s">
-        <v>2</v>
-      </c>
-      <c r="S68" t="s">
-        <v>2</v>
-      </c>
-      <c r="T68" t="s">
-        <v>2</v>
-      </c>
-      <c r="U68" t="s">
-        <v>2</v>
-      </c>
-      <c r="V68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3772,10 +3646,13 @@
         <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3807,13 +3684,16 @@
         <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3842,19 +3722,22 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3877,25 +3760,34 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3918,28 +3810,34 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K73" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M73" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3959,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
@@ -3971,13 +3869,13 @@
         <v>3</v>
       </c>
       <c r="K74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N74" t="s">
         <v>3</v>
@@ -3988,11 +3886,8 @@
       <c r="P74" t="s">
         <v>3</v>
       </c>
-      <c r="Q74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4009,10 +3904,10 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
@@ -4021,19 +3916,19 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
         <v>14</v>
@@ -4042,10 +3937,13 @@
         <v>3</v>
       </c>
       <c r="Q75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4062,43 +3960,46 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K76" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76" t="s">
         <v>14</v>
       </c>
       <c r="M76" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O76" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P76" t="s">
         <v>3</v>
       </c>
       <c r="Q76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="R76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4109,10 +4010,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
@@ -4153,14 +4054,8 @@
       <c r="R77" t="s">
         <v>3</v>
       </c>
-      <c r="S77" t="s">
-        <v>3</v>
-      </c>
-      <c r="T77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4171,10 +4066,10 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -4186,43 +4081,31 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>14</v>
       </c>
       <c r="M78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P78" t="s">
         <v>3</v>
       </c>
-      <c r="Q78" t="s">
-        <v>14</v>
-      </c>
-      <c r="R78" t="s">
-        <v>14</v>
-      </c>
-      <c r="S78" t="s">
-        <v>3</v>
-      </c>
-      <c r="T78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4233,16 +4116,16 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>3</v>
@@ -4251,19 +4134,19 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M79" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
         <v>14</v>
@@ -4271,20 +4154,8 @@
       <c r="P79" t="s">
         <v>3</v>
       </c>
-      <c r="Q79" t="s">
-        <v>3</v>
-      </c>
-      <c r="R79" t="s">
-        <v>3</v>
-      </c>
-      <c r="S79" t="s">
-        <v>3</v>
-      </c>
-      <c r="T79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4304,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -4316,13 +4187,13 @@
         <v>3</v>
       </c>
       <c r="K80" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M80" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N80" t="s">
         <v>3</v>
@@ -4333,11 +4204,8 @@
       <c r="P80" t="s">
         <v>3</v>
       </c>
-      <c r="Q80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4357,40 +4225,31 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P81" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4410,40 +4269,28 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>3</v>
-      </c>
-      <c r="N82" t="s">
-        <v>3</v>
-      </c>
-      <c r="O82" t="s">
-        <v>3</v>
-      </c>
-      <c r="P82" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -4472,22 +4319,16 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L83" t="s">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -4519,16 +4360,13 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L84" t="s">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -4566,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4598,13 +4436,16 @@
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -4636,13 +4477,16 @@
         <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4682,8 +4526,11 @@
       <c r="M88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4715,16 +4562,34 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" t="s">
+        <v>14</v>
+      </c>
+      <c r="S89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4756,19 +4621,43 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L90" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M90" t="s">
-        <v>0</v>
-      </c>
-      <c r="X90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N90" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" t="s">
+        <v>14</v>
+      </c>
+      <c r="S90" t="s">
+        <v>14</v>
+      </c>
+      <c r="T90" t="s">
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
+        <v>0</v>
+      </c>
+      <c r="V90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4803,7 +4692,7 @@
         <v>14</v>
       </c>
       <c r="L91" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -4826,8 +4715,17 @@
       <c r="S91" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1</v>
+      </c>
+      <c r="V91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4954,16 +4852,13 @@
         <v>14</v>
       </c>
       <c r="T93" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U93" t="s">
-        <v>1</v>
-      </c>
-      <c r="V93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4995,43 +4890,16 @@
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>14</v>
-      </c>
-      <c r="N94" t="s">
-        <v>14</v>
-      </c>
-      <c r="O94" t="s">
-        <v>14</v>
-      </c>
-      <c r="P94" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>14</v>
-      </c>
-      <c r="R94" t="s">
-        <v>14</v>
-      </c>
-      <c r="S94" t="s">
-        <v>14</v>
-      </c>
-      <c r="T94" t="s">
-        <v>0</v>
-      </c>
-      <c r="U94" t="s">
-        <v>0</v>
-      </c>
-      <c r="V94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -5063,40 +4931,16 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>14</v>
-      </c>
-      <c r="N95" t="s">
-        <v>14</v>
-      </c>
-      <c r="O95" t="s">
-        <v>14</v>
-      </c>
-      <c r="P95" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>14</v>
-      </c>
-      <c r="R95" t="s">
-        <v>14</v>
-      </c>
-      <c r="S95" t="s">
-        <v>14</v>
-      </c>
-      <c r="T95" t="s">
-        <v>14</v>
-      </c>
-      <c r="U95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -5137,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -5169,16 +5013,13 @@
         <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L97" t="s">
-        <v>1</v>
-      </c>
-      <c r="M97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -5209,17 +5050,17 @@
       <c r="J98" t="s">
         <v>14</v>
       </c>
-      <c r="K98" t="s">
-        <v>0</v>
-      </c>
-      <c r="L98" t="s">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>0</v>
+      </c>
+      <c r="V98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -5250,14 +5091,17 @@
       <c r="J99" t="s">
         <v>14</v>
       </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-      <c r="L99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T99" t="s">
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1</v>
+      </c>
+      <c r="V99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -5298,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -5329,17 +5173,11 @@
       <c r="J101" t="s">
         <v>14</v>
       </c>
-      <c r="T101" t="s">
-        <v>0</v>
-      </c>
       <c r="U101" t="s">
-        <v>1</v>
-      </c>
-      <c r="V101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -5370,17 +5208,17 @@
       <c r="J102" t="s">
         <v>14</v>
       </c>
-      <c r="T102" t="s">
-        <v>0</v>
-      </c>
-      <c r="U102" t="s">
-        <v>0</v>
-      </c>
-      <c r="V102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -5411,11 +5249,17 @@
       <c r="J103" t="s">
         <v>14</v>
       </c>
-      <c r="U103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -5456,9 +5300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>14</v>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -5491,13 +5335,16 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -5532,15 +5379,15 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>9</v>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
@@ -5578,11 +5425,8 @@
       <c r="M107" t="s">
         <v>0</v>
       </c>
-      <c r="W107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -5614,16 +5458,13 @@
         <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L108" t="s">
-        <v>1</v>
-      </c>
-      <c r="M108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -5655,16 +5496,13 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>0</v>
-      </c>
-      <c r="M109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -5702,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5739,8 +5577,17 @@
       <c r="L111" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -5775,10 +5622,19 @@
         <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" t="s">
+        <v>14</v>
+      </c>
+      <c r="O112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -5813,10 +5669,19 @@
         <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" t="s">
+        <v>14</v>
+      </c>
+      <c r="O113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -5853,8 +5718,17 @@
       <c r="L114" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -5891,17 +5765,8 @@
       <c r="L115" t="s">
         <v>3</v>
       </c>
-      <c r="M115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N115" t="s">
-        <v>3</v>
-      </c>
-      <c r="O115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5936,19 +5801,10 @@
         <v>14</v>
       </c>
       <c r="L116" t="s">
-        <v>14</v>
-      </c>
-      <c r="M116" t="s">
-        <v>14</v>
-      </c>
-      <c r="N116" t="s">
-        <v>14</v>
-      </c>
-      <c r="O116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -5983,19 +5839,19 @@
         <v>14</v>
       </c>
       <c r="L117" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O117" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -6030,19 +5886,19 @@
         <v>14</v>
       </c>
       <c r="L118" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M118" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -6077,10 +5933,19 @@
         <v>14</v>
       </c>
       <c r="L119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6115,10 +5980,19 @@
         <v>14</v>
       </c>
       <c r="L120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -6150,16 +6024,13 @@
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L121" t="s">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -6191,16 +6062,13 @@
         <v>14</v>
       </c>
       <c r="K122" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L122" t="s">
-        <v>1</v>
-      </c>
-      <c r="M122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -6241,130 +6109,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>14</v>
-      </c>
-      <c r="K124" t="s">
-        <v>14</v>
-      </c>
-      <c r="L124" t="s">
-        <v>0</v>
-      </c>
-      <c r="W124" t="s">
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" t="s">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>14</v>
-      </c>
-      <c r="K125" t="s">
-        <v>0</v>
-      </c>
-      <c r="L125" t="s">
-        <v>0</v>
-      </c>
-      <c r="M125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>0</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1</v>
-      </c>
-      <c r="M126" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -6405,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -6437,13 +6305,16 @@
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -6475,13 +6346,16 @@
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -6519,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -6556,17 +6430,8 @@
       <c r="L131" t="s">
         <v>3</v>
       </c>
-      <c r="M131" t="s">
-        <v>0</v>
-      </c>
-      <c r="N131" t="s">
-        <v>3</v>
-      </c>
-      <c r="O131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -6601,19 +6466,10 @@
         <v>14</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
-      </c>
-      <c r="M132" t="s">
-        <v>14</v>
-      </c>
-      <c r="N132" t="s">
-        <v>14</v>
-      </c>
-      <c r="O132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -6648,19 +6504,10 @@
         <v>14</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M133" t="s">
-        <v>14</v>
-      </c>
-      <c r="N133" t="s">
-        <v>14</v>
-      </c>
-      <c r="O133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -6697,17 +6544,8 @@
       <c r="L134" t="s">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>3</v>
-      </c>
-      <c r="N134" t="s">
-        <v>0</v>
-      </c>
-      <c r="O134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -6744,8 +6582,17 @@
       <c r="L135" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -6777,16 +6624,22 @@
         <v>14</v>
       </c>
       <c r="K136" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L136" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M136" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N136" t="s">
+        <v>14</v>
+      </c>
+      <c r="O136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6818,16 +6671,22 @@
         <v>14</v>
       </c>
       <c r="K137" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L137" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N137" t="s">
+        <v>14</v>
+      </c>
+      <c r="O137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -6859,18 +6718,24 @@
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L138" t="s">
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="N138" t="s">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>14</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
@@ -6903,10 +6768,10 @@
         <v>14</v>
       </c>
       <c r="L139" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -6938,16 +6803,13 @@
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L140" t="s">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -6979,16 +6841,22 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L141" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M141" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -7020,16 +6888,22 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L142" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M142" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N142" t="s">
+        <v>14</v>
+      </c>
+      <c r="O142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -7064,10 +6938,19 @@
         <v>14</v>
       </c>
       <c r="L143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M143" t="s">
+        <v>14</v>
+      </c>
+      <c r="N143" t="s">
+        <v>14</v>
+      </c>
+      <c r="O143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -7113,8 +6996,11 @@
       <c r="O144" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -7149,19 +7035,10 @@
         <v>14</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
-      </c>
-      <c r="M145" t="s">
-        <v>14</v>
-      </c>
-      <c r="N145" t="s">
-        <v>14</v>
-      </c>
-      <c r="O145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -7196,19 +7073,10 @@
         <v>14</v>
       </c>
       <c r="L146" t="s">
-        <v>14</v>
-      </c>
-      <c r="M146" t="s">
-        <v>14</v>
-      </c>
-      <c r="N146" t="s">
-        <v>14</v>
-      </c>
-      <c r="O146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7240,7 +7108,7 @@
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L147" t="s">
         <v>3</v>
@@ -7248,17 +7116,8 @@
       <c r="M147" t="s">
         <v>0</v>
       </c>
-      <c r="N147" t="s">
-        <v>3</v>
-      </c>
-      <c r="O147" t="s">
-        <v>0</v>
-      </c>
-      <c r="W147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -7287,7 +7146,7 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
@@ -7295,8 +7154,14 @@
       <c r="L148" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>14</v>
+      </c>
+      <c r="N148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -7322,19 +7187,28 @@
         <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K149" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M149" t="s">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -7357,25 +7231,34 @@
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L150" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N150" t="s">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>14</v>
+      </c>
+      <c r="P150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -7395,31 +7278,40 @@
         <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K151" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M151" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>0</v>
+      </c>
+      <c r="P151" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -7442,31 +7334,34 @@
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L152" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M152" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N152" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -7489,34 +7384,31 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K153" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M153" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O153" t="s">
-        <v>14</v>
-      </c>
-      <c r="P153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -7536,40 +7428,31 @@
         <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L154" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M154" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N154" t="s">
-        <v>3</v>
-      </c>
-      <c r="O154" t="s">
-        <v>0</v>
-      </c>
-      <c r="P154" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -7592,34 +7475,25 @@
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K155" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M155" t="s">
-        <v>14</v>
-      </c>
-      <c r="N155" t="s">
-        <v>0</v>
-      </c>
-      <c r="O155" t="s">
-        <v>14</v>
-      </c>
-      <c r="P155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -7645,28 +7519,19 @@
         <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K156" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L156" t="s">
-        <v>3</v>
-      </c>
-      <c r="M156" t="s">
-        <v>0</v>
-      </c>
-      <c r="N156" t="s">
-        <v>3</v>
-      </c>
-      <c r="O156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -7695,7 +7560,7 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K157" t="s">
         <v>14</v>
@@ -7703,14 +7568,8 @@
       <c r="L157" t="s">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>14</v>
-      </c>
-      <c r="N157" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -7742,16 +7601,13 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L158" t="s">
         <v>3</v>
       </c>
-      <c r="M158" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7789,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -7821,13 +7677,16 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L160" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -7859,13 +7718,16 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -7897,132 +7759,12 @@
         <v>14</v>
       </c>
       <c r="K162" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L162" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" t="s">
-        <v>14</v>
-      </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>14</v>
-      </c>
-      <c r="K163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L163" t="s">
-        <v>0</v>
-      </c>
-      <c r="M163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>14</v>
-      </c>
-      <c r="H164" t="s">
-        <v>14</v>
-      </c>
-      <c r="I164" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" t="s">
-        <v>14</v>
-      </c>
-      <c r="K164" t="s">
-        <v>0</v>
-      </c>
-      <c r="L164" t="s">
-        <v>1</v>
-      </c>
-      <c r="M164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>14</v>
-      </c>
-      <c r="H165" t="s">
-        <v>14</v>
-      </c>
-      <c r="I165" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" t="s">
-        <v>14</v>
-      </c>
-      <c r="K165" t="s">
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
-        <v>0</v>
-      </c>
-      <c r="M165" t="s">
+      <c r="M162" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8040,7 +7782,7 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
